--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F047B68-E26C-4D7E-A416-1701DEEC9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CF2217-A82B-476F-98B1-0F7B25810C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -448,6 +448,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -475,25 +494,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,13 +838,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -860,12 +860,12 @@
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="18" t="s">
         <v>74</v>
       </c>
       <c r="H3">
         <f>SUM(D3:D76)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -895,20 +895,20 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
@@ -924,20 +924,20 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
@@ -1022,7 +1022,9 @@
       <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
       <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1067,20 +1069,20 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
@@ -1171,20 +1173,20 @@
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
@@ -1258,20 +1260,20 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
@@ -1304,23 +1306,23 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
@@ -1332,7 +1334,9 @@
       <c r="C43" s="6">
         <v>2</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>2</v>
+      </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1403,20 +1407,20 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
@@ -1458,20 +1462,20 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
@@ -1500,18 +1504,18 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="15"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="17"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="9"/>
       <c r="E59" s="7"/>
     </row>
@@ -1665,18 +1669,18 @@
       <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="23"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="9"/>
       <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="9"/>
       <c r="E72" s="7"/>
     </row>
@@ -1718,7 +1722,7 @@
       <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B76" s="6"/>
@@ -1757,22 +1761,23 @@
       <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="21"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="25"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="10"/>
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A82" s="26"/>
+      <c r="A82" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A28:E28"/>
@@ -1780,12 +1785,11 @@
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CF2217-A82B-476F-98B1-0F7B25810C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62969695-39FA-43C4-B0E9-DDCB33E9838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
   <si>
     <t>Final Overall System Features</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Total(Out of 50 with a max of 60):</t>
+  </si>
+  <si>
+    <t>Maximum Possible:</t>
   </si>
 </sst>
 </file>
@@ -467,6 +470,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,15 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,13 +841,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
@@ -880,6 +883,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
+      <c r="G4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4">
+        <f>SUM(C3:C74)+10</f>
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
@@ -895,20 +905,20 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
@@ -924,20 +934,20 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
@@ -1069,20 +1079,20 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
@@ -1173,20 +1183,20 @@
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5" t="s">
@@ -1260,20 +1270,20 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
@@ -1306,23 +1316,23 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
@@ -1407,20 +1417,20 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="21"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5" t="s">
@@ -1462,20 +1472,20 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5" t="s">
@@ -1504,11 +1514,11 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
@@ -1772,12 +1782,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A28:E28"/>
@@ -1790,6 +1794,12 @@
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62969695-39FA-43C4-B0E9-DDCB33E9838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DC3A3D-AD14-4326-804D-93AAD0392733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -471,6 +471,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,24 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,7 +814,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D76)</f>
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -881,7 +881,9 @@
       <c r="C4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="G4" s="18" t="s">
         <v>75</v>
@@ -901,15 +903,17 @@
       <c r="C5" s="6">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
@@ -934,11 +938,11 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
@@ -1079,11 +1083,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
@@ -1183,11 +1187,11 @@
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="22" t="s">
@@ -1270,11 +1274,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="22" t="s">
@@ -1316,11 +1320,11 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
@@ -1417,11 +1421,11 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="22" t="s">
@@ -1472,11 +1476,11 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="22" t="s">
@@ -1514,11 +1518,11 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
@@ -1782,6 +1786,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A28:E28"/>
@@ -1794,12 +1804,6 @@
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DC3A3D-AD14-4326-804D-93AAD0392733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70554526-0583-4781-A376-195050B85A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -471,6 +471,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,24 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,7 +814,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D76)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -909,11 +909,11 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
@@ -938,11 +938,11 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
@@ -1083,11 +1083,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
@@ -1187,11 +1187,11 @@
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="22" t="s">
@@ -1274,11 +1274,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="22" t="s">
@@ -1320,11 +1320,11 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
@@ -1348,9 +1348,7 @@
       <c r="C43" s="6">
         <v>2</v>
       </c>
-      <c r="D43" s="10">
-        <v>2</v>
-      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1421,11 +1419,11 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="22" t="s">
@@ -1476,11 +1474,11 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="22" t="s">
@@ -1518,11 +1516,11 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
@@ -1786,12 +1784,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A28:E28"/>
@@ -1804,6 +1796,12 @@
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70554526-0583-4781-A376-195050B85A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2348B75-B88C-41E9-95A0-57D6B16A3A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -471,6 +471,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,24 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D76)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -909,11 +909,11 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
@@ -938,11 +938,11 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
@@ -978,7 +978,9 @@
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
       <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1083,11 +1085,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
@@ -1187,11 +1189,11 @@
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="22" t="s">
@@ -1274,11 +1276,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="22" t="s">
@@ -1320,11 +1322,11 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
@@ -1419,11 +1421,11 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="22" t="s">
@@ -1474,11 +1476,11 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="22" t="s">
@@ -1516,11 +1518,11 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
@@ -1784,6 +1786,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A28:E28"/>
@@ -1796,12 +1804,6 @@
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2348B75-B88C-41E9-95A0-57D6B16A3A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80752275-05BD-4129-B04D-9F34F51CF031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -471,6 +471,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,24 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D76)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -909,11 +909,11 @@
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
@@ -938,11 +938,11 @@
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
@@ -1085,11 +1085,11 @@
       <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="22" t="s">
@@ -1189,11 +1189,11 @@
       <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="22" t="s">
@@ -1276,11 +1276,11 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="22" t="s">
@@ -1322,11 +1322,11 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
@@ -1421,11 +1421,11 @@
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="21"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="22" t="s">
@@ -1446,7 +1446,9 @@
       <c r="C51" s="6">
         <v>2</v>
       </c>
-      <c r="D51" s="10"/>
+      <c r="D51" s="10">
+        <v>2</v>
+      </c>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1459,7 +1461,9 @@
       <c r="C52" s="6">
         <v>1</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1472,15 +1476,17 @@
       <c r="C53" s="6">
         <v>2</v>
       </c>
-      <c r="D53" s="10"/>
+      <c r="D53" s="10">
+        <v>2</v>
+      </c>
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="22" t="s">
@@ -1518,11 +1524,11 @@
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
@@ -1786,12 +1792,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A28:E28"/>
@@ -1804,6 +1804,12 @@
     <mergeCell ref="A50:E50"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80752275-05BD-4129-B04D-9F34F51CF031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0CFC2B-4428-4E8D-8157-74AFAD0CD792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D76)</f>
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1350,7 +1350,9 @@
       <c r="C43" s="6">
         <v>2</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>2</v>
+      </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1363,7 +1365,9 @@
       <c r="C44" s="6">
         <v>2</v>
       </c>
-      <c r="D44" s="10"/>
+      <c r="D44" s="10">
+        <v>2</v>
+      </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1607,7 +1611,9 @@
       <c r="C64" s="6">
         <v>2</v>
       </c>
-      <c r="D64" s="10"/>
+      <c r="D64" s="10">
+        <v>2</v>
+      </c>
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0CFC2B-4428-4E8D-8157-74AFAD0CD792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FCD03-D47C-4410-9CC9-68B687861C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D76)</f>
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1511,7 +1511,9 @@
       <c r="C56" s="6">
         <v>2</v>
       </c>
-      <c r="D56" s="9"/>
+      <c r="D56" s="9">
+        <v>2</v>
+      </c>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FCD03-D47C-4410-9CC9-68B687861C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174CBF9-1302-4E5E-81EF-E608EAC82B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D76)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1628,7 +1628,9 @@
       <c r="C65" s="6">
         <v>2</v>
       </c>
-      <c r="D65" s="10"/>
+      <c r="D65" s="10">
+        <v>2</v>
+      </c>
       <c r="E65" s="11"/>
     </row>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174CBF9-1302-4E5E-81EF-E608EAC82B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96E674B-9954-40F6-A5AA-66CC0E67EF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>Final Overall System Features</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Maximum Possible:</t>
+  </si>
+  <si>
+    <t>List of Web and AI sources used</t>
   </si>
 </sst>
 </file>
@@ -811,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,8 +870,8 @@
         <v>74</v>
       </c>
       <c r="H3">
-        <f>SUM(D3:D76)</f>
-        <v>45</v>
+        <f>SUM(D3:D77)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -889,88 +892,88 @@
         <v>75</v>
       </c>
       <c r="H4">
-        <f>SUM(C3:C74)+10</f>
-        <v>112</v>
+        <f>SUM(C3:C75)+10</f>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>7</v>
@@ -985,7 +988,7 @@
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>7</v>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>7</v>
@@ -1015,10 +1018,10 @@
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -1030,7 +1033,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>19</v>
@@ -1045,20 +1048,22 @@
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="6">
-        <v>2</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
       <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>19</v>
@@ -1066,58 +1071,56 @@
       <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="10">
-        <v>2</v>
-      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="11"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>7</v>
@@ -1132,10 +1135,10 @@
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -1147,7 +1150,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>19</v>
@@ -1162,7 +1165,7 @@
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>19</v>
@@ -1177,64 +1180,66 @@
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="B28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C31" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>19</v>
@@ -1245,24 +1250,22 @@
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C33" s="6">
         <v>2</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>12</v>
@@ -1275,40 +1278,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
+    <row r="35" spans="1:5" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>7</v>
@@ -1322,42 +1325,42 @@
       <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
+      <c r="A39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="6">
-        <v>2</v>
-      </c>
-      <c r="D43" s="10">
-        <v>2</v>
-      </c>
-      <c r="E43" s="11"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>19</v>
@@ -1372,7 +1375,7 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>19</v>
@@ -1380,189 +1383,189 @@
       <c r="C45" s="6">
         <v>2</v>
       </c>
-      <c r="D45" s="10"/>
+      <c r="D45" s="10">
+        <v>2</v>
+      </c>
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C46" s="6">
-        <v>1</v>
-      </c>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D46" s="10"/>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47" s="6">
-        <v>4</v>
-      </c>
-      <c r="D47" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D47" s="10">
+        <v>1</v>
+      </c>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="6">
-        <v>1</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-    </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="6">
-        <v>2</v>
-      </c>
-      <c r="D51" s="10">
-        <v>2</v>
-      </c>
-      <c r="E51" s="11"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="6">
-        <v>2</v>
-      </c>
-      <c r="D53" s="10">
-        <v>2</v>
-      </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="10">
+        <v>2</v>
+      </c>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-    </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="6">
-        <v>2</v>
-      </c>
-      <c r="D56" s="9">
-        <v>2</v>
-      </c>
-      <c r="E56" s="7"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="9">
+        <v>2</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C58" s="6">
         <v>3</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="6">
-        <v>1</v>
-      </c>
-      <c r="D60" s="10">
-        <v>1</v>
-      </c>
-      <c r="E60" s="11"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>7</v>
@@ -1577,7 +1580,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>7</v>
@@ -1592,35 +1595,35 @@
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C63" s="6">
-        <v>3</v>
-      </c>
-      <c r="D63" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="D63" s="10">
+        <v>1</v>
+      </c>
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C64" s="6">
-        <v>2</v>
-      </c>
-      <c r="D64" s="10">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D64" s="10"/>
       <c r="E64" s="11"/>
     </row>
     <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>19</v>
@@ -1635,59 +1638,61 @@
     </row>
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C66" s="6">
-        <v>1</v>
-      </c>
-      <c r="D66" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="D66" s="10">
+        <v>2</v>
+      </c>
       <c r="E66" s="11"/>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C67" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="11"/>
     </row>
     <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C69" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>19</v>
@@ -1699,61 +1704,63 @@
       <c r="E70" s="11"/>
     </row>
     <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="14"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="7"/>
+      <c r="A71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="12" t="s">
-        <v>68</v>
-      </c>
+      <c r="A72" s="14"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="9"/>
       <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
+      <c r="A73" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="6">
+        <v>4</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="11"/>
     </row>
     <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="15" t="s">
-        <v>73</v>
+      <c r="A76" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
@@ -1763,9 +1770,13 @@
       <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="5"/>
+      <c r="A77" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="D77" s="10"/>
       <c r="E77" s="11"/>
     </row>
@@ -1791,35 +1802,42 @@
       <c r="E80" s="11"/>
     </row>
     <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="12"/>
+      <c r="A81" s="5"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="16"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="10"/>
       <c r="E81" s="11"/>
     </row>
-    <row r="82" spans="1:5" ht="15" x14ac:dyDescent="0.35">
-      <c r="A82" s="17"/>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="12"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A83" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
     <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A20:E20"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96E674B-9954-40F6-A5AA-66CC0E67EF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216463D-A20E-40AA-806E-F2FD1E4B3476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -474,6 +474,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -481,24 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,7 +871,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D77)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -927,11 +927,11 @@
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
@@ -956,11 +956,11 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="22" t="s">
@@ -1103,11 +1103,11 @@
       <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="22" t="s">
@@ -1207,11 +1207,11 @@
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="22" t="s">
@@ -1294,11 +1294,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="22" t="s">
@@ -1340,11 +1340,11 @@
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
@@ -1398,7 +1398,9 @@
       <c r="C46" s="6">
         <v>2</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="10">
+        <v>2</v>
+      </c>
       <c r="E46" s="11"/>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1443,11 +1445,11 @@
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="22" t="s">
@@ -1504,11 +1506,11 @@
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="22" t="s">
@@ -1548,11 +1550,11 @@
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
@@ -1820,6 +1822,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A59:E59"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A29:E29"/>
@@ -1832,12 +1840,6 @@
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216463D-A20E-40AA-806E-F2FD1E4B3476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED11163-9A06-4864-B40A-BE396958D381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>Final Overall System Features</t>
   </si>
@@ -267,6 +267,42 @@
   </si>
   <si>
     <t>List of Web and AI sources used</t>
+  </si>
+  <si>
+    <t>listprod.jsp</t>
+  </si>
+  <si>
+    <t>product.jsp</t>
+  </si>
+  <si>
+    <t>HTML on all pages</t>
+  </si>
+  <si>
+    <t>Very pretty</t>
+  </si>
+  <si>
+    <t>showcart.jsp</t>
+  </si>
+  <si>
+    <t>checkout.jsp</t>
+  </si>
+  <si>
+    <t>register.html</t>
+  </si>
+  <si>
+    <t>processRegistration.jsp</t>
+  </si>
+  <si>
+    <t>customer.jsp</t>
+  </si>
+  <si>
+    <t>login.jsp/logout.jsp</t>
+  </si>
+  <si>
+    <t>product.jsp/processReview.jsp</t>
+  </si>
+  <si>
+    <t>processReview.jsp</t>
   </si>
 </sst>
 </file>
@@ -816,13 +852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -984,7 +1021,9 @@
       <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
@@ -999,7 +1038,9 @@
       <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
@@ -1014,7 +1055,9 @@
       <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
@@ -1029,7 +1072,9 @@
       <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
@@ -1044,7 +1089,9 @@
       <c r="D16" s="10">
         <v>1</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5" t="s">
@@ -1087,7 +1134,9 @@
       <c r="D19" s="10">
         <v>2</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
@@ -1131,7 +1180,9 @@
       <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
@@ -1146,7 +1197,9 @@
       <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
@@ -1161,7 +1214,9 @@
       <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
@@ -1176,7 +1231,9 @@
       <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
@@ -1235,7 +1292,9 @@
       <c r="D31" s="10">
         <v>1</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
@@ -1322,7 +1381,9 @@
       <c r="D38" s="10">
         <v>1</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
@@ -1337,7 +1398,9 @@
       <c r="D39" s="10">
         <v>1</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
@@ -1371,9 +1434,11 @@
       <c r="D44" s="10">
         <v>2</v>
       </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
@@ -1386,7 +1451,9 @@
       <c r="D45" s="10">
         <v>2</v>
       </c>
-      <c r="E45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5" t="s">
@@ -1401,7 +1468,9 @@
       <c r="D46" s="10">
         <v>2</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="11" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5" t="s">
@@ -1416,7 +1485,9 @@
       <c r="D47" s="10">
         <v>1</v>
       </c>
-      <c r="E47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5" t="s">
@@ -1460,7 +1531,7 @@
       <c r="D51" s="23"/>
       <c r="E51" s="24"/>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
         <v>49</v>
       </c>
@@ -1473,7 +1544,9 @@
       <c r="D52" s="10">
         <v>2</v>
       </c>
-      <c r="E52" s="11"/>
+      <c r="E52" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
@@ -1488,7 +1561,9 @@
       <c r="D53" s="10">
         <v>1</v>
       </c>
-      <c r="E53" s="11"/>
+      <c r="E53" s="11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
@@ -1503,7 +1578,9 @@
       <c r="D54" s="10">
         <v>2</v>
       </c>
-      <c r="E54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
@@ -1534,7 +1611,9 @@
       <c r="D57" s="9">
         <v>2</v>
       </c>
-      <c r="E57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5" t="s">

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED11163-9A06-4864-B40A-BE396958D381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AC436-5FBA-4690-B090-3D4306DF77D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
   <si>
     <t>Final Overall System Features</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>processReview.jsp</t>
+  </si>
+  <si>
+    <t>admin.jsp</t>
+  </si>
+  <si>
+    <t>admin.jsp/processAddProduct.jsp</t>
+  </si>
+  <si>
+    <t>updateProducts.jsp / editProduct.jsp / removeProduct.jsp</t>
+  </si>
+  <si>
+    <t>it sure does</t>
   </si>
 </sst>
 </file>
@@ -852,14 +864,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.1796875" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,7 +920,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D77)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1106,7 +1118,9 @@
       <c r="D17" s="10">
         <v>1</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
@@ -1657,7 +1671,9 @@
       <c r="D61" s="10">
         <v>1</v>
       </c>
-      <c r="E61" s="11"/>
+      <c r="E61" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
@@ -1669,9 +1685,7 @@
       <c r="C62" s="6">
         <v>1</v>
       </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
+      <c r="D62" s="10"/>
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1687,7 +1701,9 @@
       <c r="D63" s="10">
         <v>1</v>
       </c>
-      <c r="E63" s="11"/>
+      <c r="E63" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5" t="s">
@@ -1702,7 +1718,7 @@
       <c r="D64" s="10"/>
       <c r="E64" s="11"/>
     </row>
-    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5" t="s">
         <v>61</v>
       </c>
@@ -1715,9 +1731,11 @@
       <c r="D65" s="10">
         <v>2</v>
       </c>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E65" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5" t="s">
         <v>62</v>
       </c>
@@ -1730,7 +1748,9 @@
       <c r="D66" s="10">
         <v>2</v>
       </c>
-      <c r="E66" s="11"/>
+      <c r="E66" s="11" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40AC436-5FBA-4690-B090-3D4306DF77D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342187B-42E3-45B2-966F-45A1F65127AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
   <si>
     <t>Final Overall System Features</t>
   </si>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -920,7 +920,7 @@
       </c>
       <c r="H3">
         <f>SUM(D3:D77)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1625,7 +1625,7 @@
       <c r="D57" s="9">
         <v>2</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1685,8 +1685,12 @@
       <c r="C62" s="6">
         <v>1</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">

--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heric\Desktop\School\Year 4\Semester 1\COSC 304\Ratlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B342187B-42E3-45B2-966F-45A1F65127AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC248C57-7176-4A24-9C50-3604ED943745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9786DE29-1A79-48C9-97F6-C56E8DACF8C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
   <si>
     <t>Final Overall System Features</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>it sure does</t>
+  </si>
+  <si>
+    <t>yup</t>
+  </si>
+  <si>
+    <t>Total: (Out of 50 with a maximum of 60)</t>
   </si>
 </sst>
 </file>
@@ -864,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674C5126-D32A-4159-BC57-1A5C39BFEA7B}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1262,7 +1268,9 @@
       <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
@@ -1893,10 +1901,18 @@
       <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="5"/>
+      <c r="A79" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="10"/>
+      <c r="C79" s="6">
+        <f>SUM(C3:C75) +10</f>
+        <v>115</v>
+      </c>
+      <c r="D79" s="10">
+        <f>SUM(D3:D77)</f>
+        <v>50</v>
+      </c>
       <c r="E79" s="11"/>
     </row>
     <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
